--- a/use_cases/IES_Feb23/data/cases_info.xlsx
+++ b/use_cases/IES_Feb23/data/cases_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/IES_Feb23/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEDB788-10A0-454C-AA38-C2E02E63C8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672DD729-CD0E-B94D-8899-E71C20933E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18040" yWindow="0" windowWidth="17800" windowHeight="22400" xr2:uid="{9C68323A-2460-E743-B5FC-B455388DAB58}"/>
+    <workbookView xWindow="3920" yWindow="1480" windowWidth="31160" windowHeight="17880" xr2:uid="{9C68323A-2460-E743-B5FC-B455388DAB58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
